--- a/example/info/01 prepared info.xlsx
+++ b/example/info/01 prepared info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,32 +488,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P_020_F_1_017_198_18.csv</t>
+          <t>T_100_B_2_036_067_08.csv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>0.000866</v>
       </c>
       <c r="H2" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I2" t="n">
         <v>3.175</v>
@@ -527,32 +527,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P_020_F_2_018_202_19.csv</t>
+          <t>T_200_A_3_096_033_11.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0.000866</v>
       </c>
       <c r="H3" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I3" t="n">
         <v>3.175</v>
@@ -566,32 +566,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P_020_F_3_019_208_25.csv</t>
+          <t>T_150_E_2_076_117_10.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>0.000866</v>
       </c>
       <c r="H4" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I4" t="n">
         <v>3.175</v>
@@ -605,20 +605,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P_020_G_1_021_197_16.csv</t>
+          <t>T_150_F_1_078_136_28.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -630,7 +630,7 @@
         <v>0.000866</v>
       </c>
       <c r="H5" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I5" t="n">
         <v>3.175</v>
@@ -644,16 +644,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P_020_G_2_022_195_24.csv</t>
+          <t>T_150_G_1_082_144_34.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -662,14 +662,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>0.000866</v>
       </c>
       <c r="H6" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I6" t="n">
         <v>3.175</v>
@@ -683,32 +683,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P_020_G_3_023_203_17.csv</t>
+          <t>T_150_H_1_086_137_28.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0.000866</v>
       </c>
       <c r="H7" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I7" t="n">
         <v>3.175</v>
@@ -722,20 +722,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P_020_H_1_025_199_09.csv</t>
+          <t>T_150_I_1_090_143_34.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -747,7 +747,7 @@
         <v>0.000866</v>
       </c>
       <c r="H8" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I8" t="n">
         <v>3.175</v>
@@ -761,32 +761,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P_020_H_2_026_204_18.csv</t>
+          <t>T_200_A_1_094_041_14.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>0.000866</v>
       </c>
       <c r="H9" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I9" t="n">
         <v>3.175</v>
@@ -800,32 +800,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P_020_H_3_027_206_11.csv</t>
+          <t>T_200_A_2_095_034_12.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0.000866</v>
       </c>
       <c r="H10" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I10" t="n">
         <v>3.175</v>
@@ -839,20 +839,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P_020_I_1_029_196_24.csv</t>
+          <t>T_200_B_1_097_068_11.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -864,7 +864,7 @@
         <v>0.000866</v>
       </c>
       <c r="H11" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I11" t="n">
         <v>3.175</v>
@@ -878,32 +878,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P_020_I_2_030_194_21.csv</t>
+          <t>T_100_B_3_037_096_09.csv</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>0.000866</v>
       </c>
       <c r="H12" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I12" t="n">
         <v>3.175</v>
@@ -917,32 +917,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P_020_I_3_031_201_22.csv</t>
+          <t>T_200_B_2_098_075_12.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>0.000866</v>
       </c>
       <c r="H13" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I13" t="n">
         <v>3.175</v>
@@ -956,32 +956,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P_150_G_1_083_165_02.csv</t>
+          <t>T_200_B_3_099_076_13.csv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0.000866</v>
       </c>
       <c r="H14" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I14" t="n">
         <v>3.175</v>
@@ -995,32 +995,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P_150_G_2_084_168_03.csv</t>
+          <t>T_200_C_1_100_054_09.csv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0.000866</v>
       </c>
       <c r="H15" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I15" t="n">
         <v>3.175</v>
@@ -1034,32 +1034,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P_150_G_3_085_164_04.csv</t>
+          <t>T_200_C_2_101_055_10.csv</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0.000866</v>
       </c>
       <c r="H16" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I16" t="n">
         <v>3.175</v>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>P_150_H_1_087_166_01.csv</t>
+          <t>T_200_C_3_102_099_14.csv</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0.000866</v>
       </c>
       <c r="H17" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I17" t="n">
         <v>3.175</v>
@@ -1112,32 +1112,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P_150_H_2_088_170_02.csv</t>
+          <t>T_200_D_1_103_077_11.csv</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0.000866</v>
       </c>
       <c r="H18" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I18" t="n">
         <v>3.175</v>
@@ -1151,32 +1151,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>P_150_H_3_089_152_03.csv</t>
+          <t>T_200_D_2_104_078_12.csv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>0.000866</v>
       </c>
       <c r="H19" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I19" t="n">
         <v>3.175</v>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>P_150_I_1_091_161_04.csv</t>
+          <t>T_150_E_1_075_116_09.csv</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1215,7 +1215,7 @@
         <v>0.000866</v>
       </c>
       <c r="H20" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I20" t="n">
         <v>3.175</v>
@@ -1229,12 +1229,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P_150_I_2_092_162_05.csv</t>
+          <t>T_150_D_2_073_112_05.csv</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1254,7 +1254,7 @@
         <v>0.000866</v>
       </c>
       <c r="H21" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I21" t="n">
         <v>3.175</v>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>P_150_I_3_093_151_02.csv</t>
+          <t>T_150_D_1_072_111_04.csv</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1281,19 +1281,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0.000866</v>
       </c>
       <c r="H22" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I22" t="n">
         <v>3.175</v>
@@ -1307,32 +1307,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P_200_G_1_114_173_05.csv</t>
+          <t>T_150_C_2_070_108_17.csv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0.000866</v>
       </c>
       <c r="H23" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I23" t="n">
         <v>3.175</v>
@@ -1346,20 +1346,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>P_200_G_2_115_174_06.csv</t>
+          <t>T_100_C_2_039_095_05.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1371,7 +1371,7 @@
         <v>0.000866</v>
       </c>
       <c r="H24" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I24" t="n">
         <v>3.175</v>
@@ -1385,20 +1385,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P_200_G_3_116_171_07.csv</t>
+          <t>T_100_C_3_040_051_06.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1410,7 +1410,7 @@
         <v>0.000866</v>
       </c>
       <c r="H25" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I25" t="n">
         <v>3.175</v>
@@ -1424,20 +1424,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P_200_H_1_118_167_12.csv</t>
+          <t>T_100_D_1_041_072_06.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1449,7 +1449,7 @@
         <v>0.000866</v>
       </c>
       <c r="H26" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I26" t="n">
         <v>3.175</v>
@@ -1463,20 +1463,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P_200_H_2_119_149_20.csv</t>
+          <t>T_100_D_2_042_073_07.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1488,7 +1488,7 @@
         <v>0.000866</v>
       </c>
       <c r="H27" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I27" t="n">
         <v>3.175</v>
@@ -1502,20 +1502,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>P_200_H_3_120_182_21.csv</t>
+          <t>T_100_D_3_043_074_08.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1527,7 +1527,7 @@
         <v>0.000866</v>
       </c>
       <c r="H28" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I28" t="n">
         <v>3.175</v>
@@ -1541,20 +1541,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>P_200_I_1_122_181_07.csv</t>
+          <t>T_100_E_1_044_084_06.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1566,7 +1566,7 @@
         <v>0.000866</v>
       </c>
       <c r="H29" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I29" t="n">
         <v>3.175</v>
@@ -1580,20 +1580,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>P_200_I_2_123_169_06.csv</t>
+          <t>T_100_E_2_045_087_07.csv</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1605,7 +1605,7 @@
         <v>0.000866</v>
       </c>
       <c r="H30" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I30" t="n">
         <v>3.175</v>
@@ -1619,20 +1619,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P_200_I_3_124_150_03.csv</t>
+          <t>T_100_E_3_046_088_08.csv</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1644,7 +1644,7 @@
         <v>0.000866</v>
       </c>
       <c r="H31" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I31" t="n">
         <v>3.175</v>
@@ -1658,16 +1658,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P_250_F_1_141_189_07.csv</t>
+          <t>T_100_F_1_047_120_27.csv</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>0.000866</v>
       </c>
       <c r="H32" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I32" t="n">
         <v>3.175</v>
@@ -1697,32 +1697,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P_250_F_2_142_190_08.csv</t>
+          <t>T_100_G_1_051_126_28.csv</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0.000866</v>
       </c>
       <c r="H33" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I33" t="n">
         <v>3.175</v>
@@ -1736,32 +1736,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P_250_F_3_143_187_09.csv</t>
+          <t>T_100_H_1_055_123_27.csv</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0.000866</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I34" t="n">
         <v>3.175</v>
@@ -1775,20 +1775,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>P_250_G_1_145_175_08.csv</t>
+          <t>T_100_I_1_059_124_27.csv</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1800,7 +1800,7 @@
         <v>0.000866</v>
       </c>
       <c r="H35" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I35" t="n">
         <v>3.175</v>
@@ -1814,32 +1814,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P_250_G_2_146_176_09.csv</t>
+          <t>T_150_B_1_066_104_05.csv</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0.000866</v>
       </c>
       <c r="H36" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I36" t="n">
         <v>3.175</v>
@@ -1853,32 +1853,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>P_250_G_3_147_179_10.csv</t>
+          <t>T_150_B_2_067_115_15.csv</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0.000866</v>
       </c>
       <c r="H37" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I37" t="n">
         <v>3.175</v>
@@ -1892,20 +1892,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>P_250_H_1_149_154_13.csv</t>
+          <t>T_150_C_1_069_107_16.csv</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1917,7 +1917,7 @@
         <v>0.000866</v>
       </c>
       <c r="H38" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I38" t="n">
         <v>3.175</v>
@@ -1931,32 +1931,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>P_250_H_2_150_159_14.csv</t>
+          <t>T_200_D_3_105_079_13.csv</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>0.000866</v>
       </c>
       <c r="H39" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I39" t="n">
         <v>3.175</v>
@@ -1970,32 +1970,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P_250_H_3_151_160_15.csv</t>
+          <t>T_200_E_1_106_089_11.csv</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>0.000866</v>
       </c>
       <c r="H40" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I40" t="n">
         <v>3.175</v>
@@ -2009,32 +2009,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>P_250_I_1_153_183_08.csv</t>
+          <t>T_200_E_2_107_090_12.csv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0.000866</v>
       </c>
       <c r="H41" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I41" t="n">
         <v>3.175</v>
@@ -2048,20 +2048,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>P_250_I_2_154_158_13.csv</t>
+          <t>T_300_A_2_157_044_19.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2073,7 +2073,7 @@
         <v>0.000866</v>
       </c>
       <c r="H42" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I42" t="n">
         <v>3.175</v>
@@ -2087,32 +2087,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>P_250_I_3_155_156_14.csv</t>
+          <t>T_300_B_1_159_080_16.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0.000866</v>
       </c>
       <c r="H43" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I43" t="n">
         <v>3.175</v>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>P_300_F_1_172_185_10.csv</t>
+          <t>T_300_B_2_160_081_17.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2139,19 +2139,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>0.000866</v>
       </c>
       <c r="H44" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I44" t="n">
         <v>3.175</v>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>P_300_F_2_173_186_11.csv</t>
+          <t>T_300_B_3_161_082_18.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2178,19 +2178,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>0.000866</v>
       </c>
       <c r="H45" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I45" t="n">
         <v>3.175</v>
@@ -2204,12 +2204,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P_300_F_3_174_188_12.csv</t>
+          <t>T_300_C_1_162_056_11.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2217,19 +2217,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0.000866</v>
       </c>
       <c r="H46" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I46" t="n">
         <v>3.175</v>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>P_300_G_1_176_178_11.csv</t>
+          <t>T_300_C_2_163_058_13.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2256,19 +2256,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>0.000866</v>
       </c>
       <c r="H47" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I47" t="n">
         <v>3.175</v>
@@ -2282,12 +2282,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>P_300_G_2_177_177_12.csv</t>
+          <t>T_300_C_3_164_100_15.csv</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2295,19 +2295,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>0.000866</v>
       </c>
       <c r="H48" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I48" t="n">
         <v>3.175</v>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P_300_G_3_178_172_13.csv</t>
+          <t>T_300_D_1_165_083_16.csv</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2334,19 +2334,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>0.000866</v>
       </c>
       <c r="H49" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I49" t="n">
         <v>3.175</v>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>P_300_H_1_180_157_16.csv</t>
+          <t>T_300_D_2_166_101_19.csv</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2373,19 +2373,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>0.000866</v>
       </c>
       <c r="H50" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I50" t="n">
         <v>3.175</v>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>P_300_H_2_181_153_17.csv</t>
+          <t>T_300_D_3_167_102_15.csv</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2412,19 +2412,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>0.000866</v>
       </c>
       <c r="H51" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I51" t="n">
         <v>3.175</v>
@@ -2438,12 +2438,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>P_300_H_3_182_148_19.csv</t>
+          <t>T_300_E_1_168_092_16.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2451,19 +2451,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>0.000866</v>
       </c>
       <c r="H52" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I52" t="n">
         <v>3.175</v>
@@ -2477,12 +2477,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>P_300_I_1_184_184_09.csv</t>
+          <t>T_300_E_2_169_093_17.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2490,19 +2490,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>0.000866</v>
       </c>
       <c r="H53" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I53" t="n">
         <v>3.175</v>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>P_300_I_2_185_163_17.csv</t>
+          <t>T_300_E_3_170_094_18.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2529,19 +2529,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G54" t="n">
         <v>0.000866</v>
       </c>
       <c r="H54" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I54" t="n">
         <v>3.175</v>
@@ -2555,12 +2555,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>P_300_I_3_186_155_18.csv</t>
+          <t>T_300_F_1_171_133_31.csv</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PST</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2568,19 +2568,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G55" t="n">
         <v>0.000866</v>
       </c>
       <c r="H55" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I55" t="n">
         <v>3.175</v>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T_020_A_1_001_022_03.csv</t>
+          <t>T_300_G_1_175_129_32.csv</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2603,11 +2603,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2619,7 +2619,7 @@
         <v>0.000866</v>
       </c>
       <c r="H56" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I56" t="n">
         <v>3.175</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T_020_A_2_002_024_04.csv</t>
+          <t>T_300_H_1_179_128_31.csv</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2642,23 +2642,23 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G57" t="n">
         <v>0.000866</v>
       </c>
       <c r="H57" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I57" t="n">
         <v>3.175</v>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>T_020_A_3_003_025_05.csv</t>
+          <t>T_300_A_3_158_043_20.csv</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>0.000866</v>
       </c>
       <c r="H58" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I58" t="n">
         <v>3.175</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>T_020_B_1_004_059_01.csv</t>
+          <t>T_300_A_1_156_032_18.csv</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2720,11 +2720,11 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2736,7 +2736,7 @@
         <v>0.000866</v>
       </c>
       <c r="H59" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I59" t="n">
         <v>3.175</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T_020_B_2_005_061_02.csv</t>
+          <t>T_200_E_3_108_091_13.csv</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2759,23 +2759,23 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G60" t="n">
         <v>0.000866</v>
       </c>
       <c r="H60" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I60" t="n">
         <v>3.175</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>T_020_B_3_006_063_03.csv</t>
+          <t>T_250_I_1_152_127_33.csv</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2798,23 +2798,23 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v>0.000866</v>
       </c>
       <c r="H61" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I61" t="n">
         <v>3.175</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>T_020_C_1_007_045_01.csv</t>
+          <t>T_200_F_1_109_121_29.csv</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2837,11 +2837,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0.000866</v>
       </c>
       <c r="H62" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I62" t="n">
         <v>3.175</v>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T_020_C_2_008_046_02.csv</t>
+          <t>T_200_G_1_113_122_30.csv</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2876,23 +2876,23 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v>0.000866</v>
       </c>
       <c r="H63" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I63" t="n">
         <v>3.175</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T_020_C_3_009_047_03.csv</t>
+          <t>T_200_H_1_117_132_29.csv</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2915,23 +2915,23 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G64" t="n">
         <v>0.000866</v>
       </c>
       <c r="H64" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I64" t="n">
         <v>3.175</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>T_020_D_1_010_064_01.csv</t>
+          <t>T_200_I_1_121_125_29.csv</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2954,11 +2954,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2970,7 +2970,7 @@
         <v>0.000866</v>
       </c>
       <c r="H65" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I65" t="n">
         <v>3.175</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>T_020_D_2_011_065_02.csv</t>
+          <t>T_250_B_1_128_105_10.csv</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2993,23 +2993,23 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G66" t="n">
         <v>0.000866</v>
       </c>
       <c r="H66" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I66" t="n">
         <v>3.175</v>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T_020_D_3_012_066_03.csv</t>
+          <t>T_250_B_2_129_106_14.csv</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3032,23 +3032,23 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G67" t="n">
         <v>0.000866</v>
       </c>
       <c r="H67" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I67" t="n">
         <v>3.175</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>T_020_E_1_013_071_03.csv</t>
+          <t>T_250_C_1_131_109_18.csv</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3071,11 +3071,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3087,7 +3087,7 @@
         <v>0.000866</v>
       </c>
       <c r="H68" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I68" t="n">
         <v>3.175</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T_020_E_2_014_097_04.csv</t>
+          <t>T_250_C_2_132_110_19.csv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3110,11 +3110,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3126,7 +3126,7 @@
         <v>0.000866</v>
       </c>
       <c r="H69" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I69" t="n">
         <v>3.175</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>T_020_E_3_015_098_05.csv</t>
+          <t>T_250_D_1_134_113_09.csv</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3149,23 +3149,23 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G70" t="n">
         <v>0.000866</v>
       </c>
       <c r="H70" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I70" t="n">
         <v>3.175</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>T_020_F_1_016_134_26.csv</t>
+          <t>T_250_D_2_135_114_10.csv</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3188,23 +3188,23 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G71" t="n">
         <v>0.000866</v>
       </c>
       <c r="H71" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I71" t="n">
         <v>3.175</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T_020_G_1_020_139_27.csv</t>
+          <t>T_250_E_1_137_118_14.csv</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3227,11 +3227,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3243,7 +3243,7 @@
         <v>0.000866</v>
       </c>
       <c r="H72" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I72" t="n">
         <v>3.175</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T_020_H_1_024_131_26.csv</t>
+          <t>T_250_E_2_138_119_15.csv</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3266,23 +3266,23 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v>0.000866</v>
       </c>
       <c r="H73" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I73" t="n">
         <v>3.175</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>T_020_I_1_028_135_26.csv</t>
+          <t>T_250_F_1_140_142_30.csv</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3305,11 +3305,11 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3321,7 +3321,7 @@
         <v>0.000866</v>
       </c>
       <c r="H74" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I74" t="n">
         <v>3.175</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>T_100_A_1_032_038_08.csv</t>
+          <t>T_250_G_1_144_146_33.csv</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3344,11 +3344,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3360,7 +3360,7 @@
         <v>0.000866</v>
       </c>
       <c r="H75" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I75" t="n">
         <v>3.175</v>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>T_100_A_2_033_039_09.csv</t>
+          <t>T_250_H_1_148_145_33.csv</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3383,23 +3383,23 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G76" t="n">
         <v>0.000866</v>
       </c>
       <c r="H76" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I76" t="n">
         <v>3.175</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T_100_A_3_034_040_10.csv</t>
+          <t>T_100_C_1_038_049_04.csv</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3426,19 +3426,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G77" t="n">
         <v>0.000866</v>
       </c>
       <c r="H77" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I77" t="n">
         <v>3.175</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>T_100_B_1_035_060_06.csv</t>
+          <t>T_300_I_1_183_130_31.csv</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3461,11 +3461,11 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3477,7 +3477,7 @@
         <v>0.000866</v>
       </c>
       <c r="H78" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I78" t="n">
         <v>3.175</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>T_100_B_2_036_067_08.csv</t>
+          <t>T_020_B_3_006_063_03.csv</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3509,14 +3509,14 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G79" t="n">
         <v>0.000866</v>
       </c>
       <c r="H79" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I79" t="n">
         <v>3.175</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>T_100_B_3_037_096_09.csv</t>
+          <t>T_020_D_3_012_066_03.csv</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3539,11 +3539,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3555,7 +3555,7 @@
         <v>0.000866</v>
       </c>
       <c r="H80" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I80" t="n">
         <v>3.175</v>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>T_100_C_1_038_049_04.csv</t>
+          <t>T_020_A_1_001_022_03.csv</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3578,11 +3578,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3594,7 +3594,7 @@
         <v>0.000866</v>
       </c>
       <c r="H81" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I81" t="n">
         <v>3.175</v>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>T_100_C_2_039_095_05.csv</t>
+          <t>T_020_A_2_002_024_04.csv</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3617,11 +3617,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3633,7 +3633,7 @@
         <v>0.000866</v>
       </c>
       <c r="H82" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I82" t="n">
         <v>3.175</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T_100_C_3_040_051_06.csv</t>
+          <t>T_020_A_3_003_025_05.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3656,11 +3656,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3672,7 +3672,7 @@
         <v>0.000866</v>
       </c>
       <c r="H83" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I83" t="n">
         <v>3.175</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T_100_D_1_041_072_06.csv</t>
+          <t>T_020_B_1_004_059_01.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3695,11 +3695,11 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3711,7 +3711,7 @@
         <v>0.000866</v>
       </c>
       <c r="H84" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I84" t="n">
         <v>3.175</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T_100_D_2_042_073_07.csv</t>
+          <t>T_020_B_2_005_061_02.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3734,11 +3734,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3750,7 +3750,7 @@
         <v>0.000866</v>
       </c>
       <c r="H85" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I85" t="n">
         <v>3.175</v>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>T_100_D_3_043_074_08.csv</t>
+          <t>T_100_B_1_035_060_06.csv</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3777,19 +3777,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G86" t="n">
         <v>0.000866</v>
       </c>
       <c r="H86" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I86" t="n">
         <v>3.175</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>T_100_E_1_044_084_06.csv</t>
+          <t>T_020_C_1_007_045_01.csv</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3812,11 +3812,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3828,7 +3828,7 @@
         <v>0.000866</v>
       </c>
       <c r="H87" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I87" t="n">
         <v>3.175</v>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>T_100_E_2_045_087_07.csv</t>
+          <t>T_020_C_2_008_046_02.csv</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3851,11 +3851,11 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3867,7 +3867,7 @@
         <v>0.000866</v>
       </c>
       <c r="H88" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I88" t="n">
         <v>3.175</v>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>T_100_E_3_046_088_08.csv</t>
+          <t>T_020_C_3_009_047_03.csv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3890,11 +3890,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3906,7 +3906,7 @@
         <v>0.000866</v>
       </c>
       <c r="H89" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I89" t="n">
         <v>3.175</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T_100_F_1_047_120_27.csv</t>
+          <t>T_020_D_2_011_065_02.csv</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3929,23 +3929,23 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v>0.000866</v>
       </c>
       <c r="H90" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I90" t="n">
         <v>3.175</v>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>T_100_G_1_051_126_28.csv</t>
+          <t>T_020_D_1_010_064_01.csv</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3968,11 +3968,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3984,7 +3984,7 @@
         <v>0.000866</v>
       </c>
       <c r="H91" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I91" t="n">
         <v>3.175</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>T_100_H_1_055_123_27.csv</t>
+          <t>T_020_E_1_013_071_03.csv</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4007,11 +4007,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4023,7 +4023,7 @@
         <v>0.000866</v>
       </c>
       <c r="H92" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I92" t="n">
         <v>3.175</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>T_100_I_1_059_124_27.csv</t>
+          <t>T_020_E_2_014_097_04.csv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4046,23 +4046,23 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G93" t="n">
         <v>0.000866</v>
       </c>
       <c r="H93" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I93" t="n">
         <v>3.175</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>T_150_B_1_066_104_05.csv</t>
+          <t>T_020_E_3_015_098_05.csv</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4085,23 +4085,23 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G94" t="n">
         <v>0.000866</v>
       </c>
       <c r="H94" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I94" t="n">
         <v>3.175</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T_150_B_2_067_115_15.csv</t>
+          <t>T_020_F_1_016_134_26.csv</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4124,23 +4124,23 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G95" t="n">
         <v>0.000866</v>
       </c>
       <c r="H95" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I95" t="n">
         <v>3.175</v>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>T_150_C_1_069_107_16.csv</t>
+          <t>T_020_G_1_020_139_27.csv</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4163,11 +4163,11 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0.000866</v>
       </c>
       <c r="H96" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I96" t="n">
         <v>3.175</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>T_150_C_2_070_108_17.csv</t>
+          <t>T_020_H_1_024_131_26.csv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4202,23 +4202,23 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G97" t="n">
         <v>0.000866</v>
       </c>
       <c r="H97" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I97" t="n">
         <v>3.175</v>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>T_150_D_1_072_111_04.csv</t>
+          <t>T_020_I_1_028_135_26.csv</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4241,11 +4241,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4257,7 +4257,7 @@
         <v>0.000866</v>
       </c>
       <c r="H98" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I98" t="n">
         <v>3.175</v>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>T_150_D_2_073_112_05.csv</t>
+          <t>T_100_A_1_032_038_08.csv</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4280,23 +4280,23 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G99" t="n">
         <v>0.000866</v>
       </c>
       <c r="H99" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I99" t="n">
         <v>3.175</v>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>T_150_E_1_075_116_09.csv</t>
+          <t>T_100_A_2_033_039_09.csv</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4319,23 +4319,23 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G100" t="n">
         <v>0.000866</v>
       </c>
       <c r="H100" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I100" t="n">
         <v>3.175</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>T_150_E_2_076_117_10.csv</t>
+          <t>T_100_A_3_034_040_10.csv</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4358,2131 +4358,25 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G101" t="n">
         <v>0.000866</v>
       </c>
       <c r="H101" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I101" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>test_ID_101</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>T_150_F_1_078_136_28.csv</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>150</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H102" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>test_ID_102</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>T_150_G_1_082_144_34.csv</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>150</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H103" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>test_ID_103</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>T_150_H_1_086_137_28.csv</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>150</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H104" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>test_ID_104</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>T_150_I_1_090_143_34.csv</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>150</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H105" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>test_ID_105</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>T_200_A_1_094_041_14.csv</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>200</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H106" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>test_ID_106</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>T_200_A_2_095_034_12.csv</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>200</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H107" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>test_ID_107</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>T_200_A_3_096_033_11.csv</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>200</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H108" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>test_ID_108</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>T_200_B_1_097_068_11.csv</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>200</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H109" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>test_ID_109</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>T_200_B_2_098_075_12.csv</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>200</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H110" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>test_ID_110</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>T_200_B_3_099_076_13.csv</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>200</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H111" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>test_ID_111</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>T_200_C_1_100_054_09.csv</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>200</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H112" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>test_ID_112</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>T_200_C_2_101_055_10.csv</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>200</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H113" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>test_ID_113</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>T_200_C_3_102_099_14.csv</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>200</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H114" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>test_ID_114</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>T_200_D_1_103_077_11.csv</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>200</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H115" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>test_ID_115</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>T_200_D_2_104_078_12.csv</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>200</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H116" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>test_ID_116</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>T_200_D_3_105_079_13.csv</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v>200</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H117" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>test_ID_117</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>T_200_E_1_106_089_11.csv</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>200</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H118" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>test_ID_118</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>T_200_E_2_107_090_12.csv</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>200</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H119" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>test_ID_119</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>T_200_E_3_108_091_13.csv</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>200</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H120" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>test_ID_120</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>T_200_F_1_109_121_29.csv</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>200</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H121" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>test_ID_121</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>T_200_G_1_113_122_30.csv</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>200</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H122" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>test_ID_122</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>T_200_H_1_117_132_29.csv</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>200</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H123" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>test_ID_123</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>T_200_I_1_121_125_29.csv</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>200</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H124" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>test_ID_124</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>T_250_B_1_128_105_10.csv</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>250</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H125" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>test_ID_125</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>T_250_B_2_129_106_14.csv</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>250</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H126" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>test_ID_126</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>T_250_C_1_131_109_18.csv</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>250</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H127" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>test_ID_127</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>T_250_C_2_132_110_19.csv</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>250</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H128" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>test_ID_128</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>T_250_D_1_134_113_09.csv</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>250</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H129" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>test_ID_129</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>T_250_D_2_135_114_10.csv</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>250</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H130" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>test_ID_130</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>T_250_E_1_137_118_14.csv</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>250</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H131" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>test_ID_131</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>T_250_E_2_138_119_15.csv</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>250</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H132" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>test_ID_132</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>T_250_F_1_140_142_30.csv</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>250</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H133" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>test_ID_133</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>T_250_G_1_144_146_33.csv</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>250</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H134" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>test_ID_134</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>T_250_H_1_148_145_33.csv</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>250</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H135" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>test_ID_135</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>T_250_I_1_152_127_33.csv</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>250</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H136" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>test_ID_136</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>T_300_A_1_156_032_18.csv</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>300</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H137" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>test_ID_137</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>T_300_A_2_157_044_19.csv</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>300</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H138" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>test_ID_138</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>T_300_A_3_158_043_20.csv</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>300</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H139" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>test_ID_139</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>T_300_B_1_159_080_16.csv</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>300</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H140" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>test_ID_140</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>T_300_B_2_160_081_17.csv</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>300</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H141" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>test_ID_141</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>T_300_B_3_161_082_18.csv</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>300</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H142" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>test_ID_142</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>T_300_C_1_162_056_11.csv</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>300</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H143" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>test_ID_143</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>T_300_C_2_163_058_13.csv</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>300</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H144" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>test_ID_144</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>T_300_C_3_164_100_15.csv</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>300</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H145" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>test_ID_145</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>T_300_D_1_165_083_16.csv</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>300</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H146" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>test_ID_146</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>T_300_D_2_166_101_19.csv</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>300</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H147" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>test_ID_147</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>T_300_D_3_167_102_15.csv</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>300</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H148" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>test_ID_148</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>T_300_E_1_168_092_16.csv</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D149" t="n">
-        <v>300</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H149" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>test_ID_149</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>T_300_E_2_169_093_17.csv</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>300</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H150" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>test_ID_150</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>T_300_E_3_170_094_18.csv</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>300</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H151" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>test_ID_151</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>T_300_F_1_171_133_31.csv</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>300</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H152" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>test_ID_152</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>T_300_G_1_175_129_32.csv</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>300</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H153" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>test_ID_153</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>T_300_H_1_179_128_31.csv</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>300</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H154" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.175</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>test_ID_154</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>T_300_I_1_183_130_31.csv</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>UT</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>300</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>0.000866</v>
-      </c>
-      <c r="H155" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="I155" t="n">
         <v>3.175</v>
       </c>
     </row>

--- a/example/info/01 prepared info.xlsx
+++ b/example/info/01 prepared info.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>test id</t>
+          <t>test_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>old filename</t>
+          <t>old_filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>test_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A_0 (mm)</t>
+          <t>A_0_(mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h_0 (mm)</t>
+          <t>h_0_(mm)</t>
         </is>
       </c>
     </row>
